--- a/data/income_statement/3digits/total/171_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/171_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>171-Manufacture of pulp, paper and paperboard</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>171-Manufacture of pulp, paper and paperboard</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>1796888.78574</v>
@@ -962,31 +868,36 @@
         <v>2911766.875560001</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>3377733.55242</v>
+        <v>3377989.42545</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>3989333.28842</v>
+        <v>4119624.04947</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>4583806.536350001</v>
+        <v>4875669.87058</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>5450021.967759999</v>
+        <v>5450108.85448</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>8515633.47876</v>
+        <v>8515633.478759998</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>12100724.26898</v>
+        <v>12103518.85908</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>12711318.76614</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>12715603.07636</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>15673091.498</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>1548907.72038</v>
@@ -1004,28 +915,33 @@
         <v>2951679.3118</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>3547691.51928</v>
+        <v>3673933.32676</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>4047498.59197</v>
+        <v>4264280.68505</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>4659817.724219999</v>
+        <v>4659904.610940001</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>7294221.78604</v>
+        <v>7294221.786039999</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>10206119.33887</v>
+        <v>10206780.96397</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>10683027.43551</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>10683157.47903</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>13310284.793</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>222923.52469</v>
@@ -1043,28 +959,33 @@
         <v>399452.95404</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>410820.3113</v>
+        <v>413969.68915</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>498398.79921</v>
+        <v>571845.7686000001</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>746195.8950599998</v>
+        <v>746195.89506</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>1167716.77916</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>1809158.75497</v>
+        <v>1811291.71997</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>1921119.67205</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>1923570.38707</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>2249860.733</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>25057.54067</v>
@@ -1079,13 +1000,13 @@
         <v>27620.32562</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>26601.28658</v>
+        <v>26857.15961</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>30821.45784</v>
+        <v>31721.03356</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>37909.14517</v>
+        <v>39543.41692999999</v>
       </c>
       <c r="J8" s="48" t="n">
         <v>44008.34848</v>
@@ -1097,13 +1018,18 @@
         <v>85446.17514000001</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>107171.65858</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>108875.21026</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>112945.972</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>27564.85801</v>
@@ -1115,16 +1041,16 @@
         <v>56962.01196</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>75617.51222000002</v>
+        <v>75617.51222</v>
       </c>
       <c r="G9" s="47" t="n">
         <v>105718.69538</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>148133.46706</v>
+        <v>148387.0807</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>192435.59182</v>
+        <v>196307.10776</v>
       </c>
       <c r="J9" s="47" t="n">
         <v>229532.45259</v>
@@ -1133,16 +1059,21 @@
         <v>314147.7761</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>452207.75185</v>
+        <v>452235.53485</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>625794.4457099999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>625794.44571</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>387373.254</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>10367.05086</v>
@@ -1160,10 +1091,10 @@
         <v>10512.35777</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>17022.67645</v>
+        <v>17271.29136</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>13285.13203</v>
+        <v>15139.95623</v>
       </c>
       <c r="J10" s="48" t="n">
         <v>20919.72537</v>
@@ -1172,16 +1103,21 @@
         <v>21992.01777</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>27682.21962</v>
+        <v>27710.00262</v>
       </c>
       <c r="M10" s="48" t="n">
         <v>46431.38473000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="48" t="n">
+        <v>62223.118</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>16063.26663</v>
@@ -1199,10 +1135,10 @@
         <v>93445.1395</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>125158.04629</v>
+        <v>125163.04502</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>163849.3312</v>
+        <v>165862.99894</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>177772.63016</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>505341.1584899999</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>219107.945</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>1134.54052</v>
@@ -1238,10 +1179,10 @@
         <v>1761.19811</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>5952.74432</v>
+        <v>5952.744320000001</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>15301.12859</v>
+        <v>15304.15259</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>30840.09706</v>
@@ -1253,13 +1194,18 @@
         <v>54130.51695</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>74021.90249000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>74021.90248999999</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>106042.191</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>1769323.92773</v>
@@ -1274,31 +1220,36 @@
         <v>2836149.36334</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>3272014.85704</v>
+        <v>3272270.73007</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>3841199.82136</v>
+        <v>3971236.96877</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>4391370.94453</v>
+        <v>4679362.76282</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>5220489.51517</v>
+        <v>5220576.401889999</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>8201485.70266</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>11648516.51713</v>
+        <v>11651283.32423</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>12085524.32043</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>12089808.63065</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>15285718.244</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>1499148.57155</v>
@@ -1316,28 +1267,33 @@
         <v>2696816.72266</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>3177184.094550001</v>
+        <v>3289072.66209</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>3694173.4008</v>
+        <v>3933900.03427</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>4510399.01534</v>
+        <v>4510473.38021</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>6290357.18333</v>
+        <v>6290357.183330001</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>7744037.07637</v>
+        <v>7744257.89676</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>9686935.059540002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>9688363.378949998</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>11575891.976</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>1390509.19344</v>
@@ -1355,31 +1311,36 @@
         <v>2536025.04272</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>2911904.27019</v>
+        <v>3022284.16544</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>3474477.3884</v>
+        <v>3711258.92189</v>
       </c>
       <c r="J15" s="48" t="n">
         <v>4249173.36142</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>5905285.68035</v>
+        <v>5905285.680349999</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>7298578.079270001</v>
+        <v>7298663.221770001</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>9158834.111020001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>9159853.395540001</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>11001726.971</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>94440.80616999998</v>
+        <v>94440.80617</v>
       </c>
       <c r="D16" s="48" t="n">
         <v>142567.07357</v>
@@ -1394,10 +1355,10 @@
         <v>129002.69545</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>229629.12491</v>
+        <v>230750.08</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>190615.76293</v>
+        <v>193438.31675</v>
       </c>
       <c r="J16" s="48" t="n">
         <v>223206.71681</v>
@@ -1406,16 +1367,21 @@
         <v>337309.6175399999</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>399253.8034399999</v>
+        <v>399389.48133</v>
       </c>
       <c r="M16" s="48" t="n">
         <v>448831.96151</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16" s="48" t="n">
+        <v>504405.996</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>6962.08608</v>
@@ -1439,22 +1405,27 @@
         <v>15064.05646</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>18088.47499</v>
+        <v>18162.83986</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>20231.40990999999</v>
+        <v>20231.40991</v>
       </c>
       <c r="L17" s="48" t="n">
         <v>31450.83834</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>28468.79405</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>28877.82894</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>31788.661</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>7236.48586</v>
@@ -1466,16 +1437,16 @@
         <v>6034.03751</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>7602.339639999999</v>
+        <v>7602.33964</v>
       </c>
       <c r="G18" s="48" t="n">
         <v>8510.267589999999</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>6630.18065</v>
+        <v>7017.89785</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>14016.19301</v>
+        <v>14138.73917</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>19930.46212</v>
@@ -1489,11 +1460,16 @@
       <c r="M18" s="48" t="n">
         <v>50800.19296</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>37970.348</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>270175.35618</v>
@@ -1508,31 +1484,36 @@
         <v>474886.55908</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>575198.1343800001</v>
+        <v>575454.00741</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>664015.72681</v>
+        <v>682164.30668</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>697197.5437299999</v>
+        <v>745462.72855</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>710090.4998299999</v>
+        <v>710103.02168</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>1911128.51933</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>3904479.44076</v>
+        <v>3907025.42747</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>2398589.26089</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2401445.2517</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>3709826.268</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>149799.51646</v>
@@ -1547,31 +1528,36 @@
         <v>221635.34626</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>247614.97438</v>
+        <v>251412.47408</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>289147.28953</v>
+        <v>297768.22585</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>321550.39472</v>
+        <v>354089.26287</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>385522.44718</v>
+        <v>385532.98776</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>448127.20722</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>621946.8300900001</v>
+        <v>624466.37763</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>772318.91548</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>775883.6189700001</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>859483.725</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>242.98857</v>
@@ -1589,10 +1575,10 @@
         <v>202.3243</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>368.6135400000001</v>
+        <v>428.60589</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>158.40195</v>
+        <v>239.97854</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>277.19561</v>
@@ -1606,14 +1592,19 @@
       <c r="M21" s="48" t="n">
         <v>3659.47748</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>4941.903</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>56204.06535</v>
+        <v>56204.06535000001</v>
       </c>
       <c r="D22" s="48" t="n">
         <v>62613.26352</v>
@@ -1622,16 +1613,16 @@
         <v>78627.91974</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>91183.32944</v>
+        <v>91183.32943999999</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>103080.476</v>
+        <v>103084.56877</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>113062.57637</v>
+        <v>117230.21581</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>127674.43836</v>
+        <v>143515.37131</v>
       </c>
       <c r="J22" s="48" t="n">
         <v>167380.63285</v>
@@ -1640,16 +1631,21 @@
         <v>220874.44335</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>300665.87753</v>
+        <v>300669.62665</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>378115.24883</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>378648.40983</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>404221.568</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>93352.46253999999</v>
@@ -1664,31 +1660,36 @@
         <v>129839.74445</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>144332.17408</v>
+        <v>148125.58101</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>175716.09962</v>
+        <v>180109.40415</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>193717.55441</v>
+        <v>210333.91302</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>217864.61872</v>
+        <v>217875.1593</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>227140.86718</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>320283.78175</v>
+        <v>322799.58017</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>390544.18917</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>393575.73166</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>450320.254</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>120375.83972</v>
@@ -1703,31 +1704,36 @@
         <v>253251.21282</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>327583.16</v>
+        <v>324041.5333300001</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>374868.43728</v>
+        <v>384396.08083</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>375647.14901</v>
+        <v>391373.46568</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>324568.05265</v>
+        <v>324570.03392</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>1463001.31211</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>3282532.610669999</v>
+        <v>3282559.04984</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1626270.34541</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1625561.63273</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>2850342.543</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>123108.91233</v>
@@ -1742,31 +1748,36 @@
         <v>182378.5075</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>153664.46191</v>
+        <v>174620.78324</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>259483.40939</v>
+        <v>270921.2419</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>303390.44502</v>
+        <v>336308.16054</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>332793.37545</v>
+        <v>332793.61521</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>572737.45103</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>1794502.54525</v>
+        <v>1794529.09688</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>1439289.06756</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>1439290.11688</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1792293.226</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>419.01302</v>
@@ -1784,7 +1795,7 @@
         <v>14369.99975</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>12443.57179</v>
+        <v>12453.57179</v>
       </c>
       <c r="I26" s="48" t="n">
         <v>8132.13459</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>9834.406620000002</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>175124.978</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>776.30524</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>124361.31183</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>5637.973</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>7398.25818</v>
@@ -1853,19 +1874,19 @@
         <v>6028.44888</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>8258.406799999999</v>
+        <v>8258.406800000001</v>
       </c>
       <c r="F28" s="48" t="n">
         <v>19473.20752</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>7046.48688</v>
+        <v>8940.692720000001</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>13048.70075</v>
+        <v>13312.35625</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>16476.41587</v>
+        <v>16811.09096</v>
       </c>
       <c r="J28" s="48" t="n">
         <v>18630.44696</v>
@@ -1874,22 +1895,27 @@
         <v>27988.20179</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>68786.98003999999</v>
+        <v>68786.98004000001</v>
       </c>
       <c r="M28" s="48" t="n">
         <v>109349.52182</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" s="48" t="n">
+        <v>93085.656</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>105.52642</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>83.57843</v>
+        <v>83.57843000000001</v>
       </c>
       <c r="E29" s="48" t="n">
         <v>57.84768</v>
@@ -1913,16 +1939,21 @@
         <v>9.081869999999999</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>686.6604800000001</v>
+        <v>686.66048</v>
       </c>
       <c r="M29" s="48" t="n">
         <v>88.72185</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>284.785</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>4866.7774</v>
@@ -1934,16 +1965,16 @@
         <v>1300.9657</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>519.6831500000001</v>
+        <v>519.68315</v>
       </c>
       <c r="G30" s="48" t="n">
         <v>441.68202</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>699.4346100000001</v>
+        <v>699.43461</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>2487.24615</v>
+        <v>2513.014270000001</v>
       </c>
       <c r="J30" s="48" t="n">
         <v>710.9686799999999</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>6843.00741</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>4766.244</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>137.61518</v>
@@ -1979,7 +2015,7 @@
         <v>156.27075</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>567.3024200000001</v>
+        <v>568.3499</v>
       </c>
       <c r="I31" s="48" t="n">
         <v>6827.23811</v>
@@ -1988,7 +2024,7 @@
         <v>1099.78136</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>453.64919</v>
+        <v>453.6491899999999</v>
       </c>
       <c r="L31" s="48" t="n">
         <v>82.06421</v>
@@ -1996,14 +2032,19 @@
       <c r="M31" s="48" t="n">
         <v>9168.172409999997</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>2025.127</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>83369.73312999998</v>
+        <v>83369.73312999999</v>
       </c>
       <c r="D32" s="48" t="n">
         <v>112549.70595</v>
@@ -2015,13 +2056,13 @@
         <v>108668.09497</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>87241.70008999998</v>
+        <v>104751.26709</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>180796.86012</v>
+        <v>191283.2585</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>219039.75937</v>
+        <v>250884.3635</v>
       </c>
       <c r="J32" s="48" t="n">
         <v>222494.06594</v>
@@ -2030,16 +2071,21 @@
         <v>432218.11378</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>1524217.48738</v>
+        <v>1524244.21513</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>868150.98642</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>868152.03574</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>1310433.466</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>13886.6683</v>
@@ -2057,10 +2103,10 @@
         <v>25550.49514</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>29041.4299</v>
+        <v>29569.1387</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>24843.97752</v>
+        <v>25413.62308</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>47579.19813</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>227263.01027</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>86492.113</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0.095</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>12149.01546</v>
@@ -2132,31 +2188,36 @@
         <v>20646.92407</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>16545.71007</v>
+        <v>18098.25856</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>22759.15992</v>
+        <v>22908.18227</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>24006.17825</v>
+        <v>24149.20087</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>26643.7101</v>
+        <v>26643.94986</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>37872.98885000001</v>
+        <v>37872.98885</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>49988.95834</v>
+        <v>49988.78222</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>84229.92892999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>84229.92893000001</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>114442.789</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>121927.93018</v>
@@ -2171,13 +2232,13 @@
         <v>122112.99568</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>167585.41303</v>
+        <v>197813.10879</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>191585.0018</v>
+        <v>220480.84284</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>353154.08193</v>
+        <v>403338.73804</v>
       </c>
       <c r="J36" s="47" t="n">
         <v>475759.26375</v>
@@ -2186,16 +2247,21 @@
         <v>759194.1452</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>2004844.52111</v>
+        <v>2004873.60542</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>1058994.97761</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>1059015.13601</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1645570.55</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>290.84895</v>
@@ -2207,7 +2273,7 @@
         <v>371.81681</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>364.4743999999999</v>
+        <v>364.4744</v>
       </c>
       <c r="G37" s="48" t="n">
         <v>728.4519499999999</v>
@@ -2216,7 +2282,7 @@
         <v>676.1626000000001</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>421.26514</v>
+        <v>761.30578</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>1358.89072</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>2121.47399</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>3790.454</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>6879.32124</v>
@@ -2243,7 +2314,7 @@
         <v>2428.31031</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>3009.814640000001</v>
+        <v>3009.81464</v>
       </c>
       <c r="F38" s="48" t="n">
         <v>5240.3557</v>
@@ -2252,10 +2323,10 @@
         <v>5019.39561</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>9429.83757</v>
+        <v>30383.6356</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>6596.548860000001</v>
+        <v>24317.69786</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>36242.92952000001</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>30207.51431</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>31032.916</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2303,19 +2379,24 @@
         <v>59.96678</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>0</v>
+        <v>8.882</v>
       </c>
       <c r="M39" s="48" t="n">
         <v>24.33539</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>132.133</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>84153.23450000002</v>
+        <v>84153.23450000001</v>
       </c>
       <c r="D40" s="48" t="n">
         <v>103402.4907</v>
@@ -2327,31 +2408,36 @@
         <v>80416.15475</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>110830.13453</v>
+        <v>141057.83029</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>146364.67538</v>
+        <v>153843.58467</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>315395.3164199999</v>
+        <v>346929.14487</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>388196.89059</v>
+        <v>388196.8905899999</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>668167.7310700001</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>1784269.00037</v>
+        <v>1784289.20268</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>792067.0890599999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>792068.7595799998</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1505430.397</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>13213.65947</v>
@@ -2369,10 +2455,10 @@
         <v>26879.46017</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>28867.88518</v>
+        <v>29331.0189</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>27017.502</v>
+        <v>27599.78496</v>
       </c>
       <c r="J41" s="48" t="n">
         <v>44998.11814</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>216412.09595</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>93793.868</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>17390.86602</v>
@@ -2450,7 +2546,7 @@
         <v>6048.16721</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>3719.12162</v>
+        <v>3726.47668</v>
       </c>
       <c r="J43" s="48" t="n">
         <v>4547.48041</v>
@@ -2462,13 +2558,18 @@
         <v>20055.71813</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>18162.46891</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>18180.95679</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>11390.782</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>58983.64969000001</v>
@@ -2483,13 +2584,13 @@
         <v>73109.74193</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>88710.35004999999</v>
+        <v>96851.11132000001</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>125950.02991</v>
+        <v>128228.87157</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>169594.11068</v>
+        <v>175249.87833</v>
       </c>
       <c r="J44" s="47" t="n">
         <v>252123.11592</v>
@@ -2498,16 +2599,21 @@
         <v>295873.87628</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>574323.6260699999</v>
+        <v>574324.46962</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>878499.7777099999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>878500.49176</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>640628.015</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>51826.61267</v>
@@ -2522,13 +2628,13 @@
         <v>66748.09</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>72084.24905</v>
+        <v>80225.01031999999</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>115880.693</v>
+        <v>117955.9696</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>149404.82422</v>
+        <v>153062.85586</v>
       </c>
       <c r="J45" s="48" t="n">
         <v>227313.53469</v>
@@ -2537,16 +2643,21 @@
         <v>271765.08235</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>513387.71289</v>
+        <v>513388.5564400001</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>672778.1050099999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>672778.81906</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>530850.927</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>7157.03702</v>
@@ -2558,16 +2669,16 @@
         <v>14539.1105</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>6361.65193</v>
+        <v>6361.651930000001</v>
       </c>
       <c r="G46" s="48" t="n">
         <v>16626.101</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>10069.33691</v>
+        <v>10272.90197</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>20189.28646</v>
+        <v>22187.02247</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>24809.58123</v>
@@ -2576,19 +2687,24 @@
         <v>24108.79393</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>60935.91318</v>
+        <v>60935.91318000001</v>
       </c>
       <c r="M46" s="48" t="n">
         <v>205721.6727</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>109777.088</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>62573.17218000001</v>
+        <v>62573.17218</v>
       </c>
       <c r="D47" s="47" t="n">
         <v>152424.11047</v>
@@ -2600,34 +2716,39 @@
         <v>240406.98271</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>224951.85883</v>
+        <v>203998.09646</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>316816.81496</v>
+        <v>306607.6083200001</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>156289.40142</v>
+        <v>149093.00985</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-70520.95156999999</v>
+        <v>-70518.73054</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>980670.7416600001</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>2497867.00874</v>
+        <v>2497890.07168</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>1128064.65765</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>1127336.12184</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>2356437.204</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>9792.521159999998</v>
+        <v>9792.52116</v>
       </c>
       <c r="D48" s="47" t="n">
         <v>31313.18136</v>
@@ -2639,13 +2760,13 @@
         <v>13876.95555</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>75840.32629</v>
+        <v>75846.32629000001</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>9831.159489999998</v>
+        <v>15757.38702</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>67785.16564000002</v>
+        <v>78011.27482999999</v>
       </c>
       <c r="J48" s="47" t="n">
         <v>86846.21606000001</v>
@@ -2654,16 +2775,21 @@
         <v>34558.70978</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>103169.70708</v>
+        <v>103195.28242</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>108897.90975</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>108921.33326</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>117581.724</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>46.17967999999999</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>1321.57181</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>666.75</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>9746.341480000001</v>
@@ -2717,37 +2848,42 @@
         <v>13833.42791</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>75824.46006999999</v>
+        <v>75830.46007</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>9734.00772</v>
+        <v>15660.23525</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>67148.25392</v>
+        <v>77374.36311000002</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>86551.5422</v>
+        <v>86551.54219999998</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>34458.80301</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>102691.99362</v>
+        <v>102717.56896</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>107576.33794</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>107599.76145</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>116914.974</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>37823.03462</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>33562.55680999999</v>
+        <v>33562.55681</v>
       </c>
       <c r="E51" s="47" t="n">
         <v>71227.43183</v>
@@ -2759,28 +2895,33 @@
         <v>69447.70642</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>68082.41277</v>
+        <v>71836.51221000002</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>75271.07839</v>
+        <v>77554.74811</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>77227.79203</v>
+        <v>77227.79202999998</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>32024.94608</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>111939.32937</v>
+        <v>111971.1241</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>65960.39004</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>65961.67333000001</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>230688.246</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>22628.39334</v>
@@ -2801,7 +2942,7 @@
         <v>53309.71333</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>62759.82866</v>
+        <v>62868.95720999999</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>13471.67807</v>
@@ -2810,28 +2951,33 @@
         <v>7197.000919999999</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>44478.70257999999</v>
+        <v>44478.70258</v>
       </c>
       <c r="M52" s="48" t="n">
         <v>21106.42652</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>62407.678</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>588.8967299999999</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>3144.901649999999</v>
+        <v>3144.90165</v>
       </c>
       <c r="E53" s="48" t="n">
         <v>1040.55794</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>764.2157799999999</v>
+        <v>764.21578</v>
       </c>
       <c r="G53" s="48" t="n">
         <v>496.22696</v>
@@ -2840,7 +2986,7 @@
         <v>752.2098000000001</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>722.3500299999999</v>
+        <v>756.47654</v>
       </c>
       <c r="J53" s="48" t="n">
         <v>448.02557</v>
@@ -2854,11 +3000,16 @@
       <c r="M53" s="48" t="n">
         <v>1197.3299</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>2311.185</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>14605.74455</v>
@@ -2873,31 +3024,36 @@
         <v>10536.67027</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>48882.35987</v>
+        <v>48882.35987000001</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>14020.48964</v>
+        <v>17774.58908</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>11788.8997</v>
+        <v>13929.31436</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>63308.08838999999</v>
+        <v>63308.08839</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>23352.66257</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>65964.83631</v>
+        <v>65996.63104000001</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>43656.63362000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>43657.91691</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>165969.383</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>34542.65872</v>
@@ -2912,31 +3068,36 @@
         <v>223554.49097</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>231344.4787</v>
+        <v>210396.71633</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>258565.56168</v>
+        <v>250528.48313</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>148803.48867</v>
+        <v>149549.53657</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-60902.52754</v>
+        <v>-60900.30650999999</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>983204.5053600001</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>2489097.38645</v>
+        <v>2489114.23</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1171002.17736</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1170295.78177</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>2243330.682</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>17362.2611</v>
@@ -2945,7 +3106,7 @@
         <v>27687.97726</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>40748.85309999999</v>
+        <v>40748.8531</v>
       </c>
       <c r="F56" s="47" t="n">
         <v>32378.42501</v>
@@ -2954,28 +3115,33 @@
         <v>36081.17515</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>53099.42191</v>
+        <v>53121.90236</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>41913.31594</v>
+        <v>41986.1564</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>41825.84095999999</v>
+        <v>41826.74991</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>125082.71936</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>393447.75969</v>
+        <v>393572.16231</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>170474.86764</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>180925.68701</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>378525.912</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>17180.39762</v>
@@ -2990,28 +3156,31 @@
         <v>191176.06596</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>195263.30355</v>
+        <v>174315.54118</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>205466.13977</v>
+        <v>197406.58077</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>106890.17273</v>
+        <v>107563.38017</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-102728.3685</v>
+        <v>-102727.05642</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>858121.786</v>
+        <v>858121.7859999998</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>2095649.62676</v>
+        <v>2095542.06769</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>1000527.30972</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>989370.09476</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>1864804.77</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>426</v>
@@ -3044,28 +3216,31 @@
         <v>325</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>264</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>270</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>